--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T12:31:33+01:00</t>
+    <t>2023-01-12T11:08:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T11:08:34+01:00</t>
+    <t>2023-01-12T14:43:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
